--- a/natmiOut/YoungD4/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N2">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O2">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P2">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q2">
-        <v>1012.785271966302</v>
+        <v>1208.358498494181</v>
       </c>
       <c r="R2">
-        <v>1012.785271966302</v>
+        <v>10875.22648644763</v>
       </c>
       <c r="S2">
-        <v>0.001107242370903247</v>
+        <v>0.001218567720730939</v>
       </c>
       <c r="T2">
-        <v>0.001107242370903247</v>
+        <v>0.00121856772073094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H3">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N3">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O3">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P3">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q3">
-        <v>369.4414522473523</v>
+        <v>419.8904819199379</v>
       </c>
       <c r="R3">
-        <v>369.4414522473523</v>
+        <v>3779.014337279441</v>
       </c>
       <c r="S3">
-        <v>0.0004038972927618831</v>
+        <v>0.0004234380675498335</v>
       </c>
       <c r="T3">
-        <v>0.0004038972927618831</v>
+        <v>0.0004234380675498336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H4">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N4">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O4">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P4">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q4">
-        <v>66704.72968426964</v>
+        <v>71273.63759109328</v>
       </c>
       <c r="R4">
-        <v>66704.72968426964</v>
+        <v>641462.7383198396</v>
       </c>
       <c r="S4">
-        <v>0.07292592525824994</v>
+        <v>0.07187581683400539</v>
       </c>
       <c r="T4">
-        <v>0.07292592525824994</v>
+        <v>0.0718758168340054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H5">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N5">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O5">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P5">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q5">
-        <v>115966.8090427177</v>
+        <v>122600.8517387178</v>
       </c>
       <c r="R5">
-        <v>115966.8090427177</v>
+        <v>1103407.66564846</v>
       </c>
       <c r="S5">
-        <v>0.1267824169098058</v>
+        <v>0.1236366861730981</v>
       </c>
       <c r="T5">
-        <v>0.1267824169098058</v>
+        <v>0.1236366861730982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H6">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N6">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O6">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P6">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q6">
-        <v>90.70819181206387</v>
+        <v>173.4120859905677</v>
       </c>
       <c r="R6">
-        <v>90.70819181206387</v>
+        <v>1560.708773915109</v>
       </c>
       <c r="S6">
-        <v>9.916806271021465E-05</v>
+        <v>0.0001748772161871308</v>
       </c>
       <c r="T6">
-        <v>9.916806271021465E-05</v>
+        <v>0.0001748772161871308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N7">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O7">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P7">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q7">
-        <v>1212.294777117648</v>
+        <v>1450.756033689141</v>
       </c>
       <c r="R7">
-        <v>1212.294777117648</v>
+        <v>13056.80430320227</v>
       </c>
       <c r="S7">
-        <v>0.001325359067123192</v>
+        <v>0.001463013232837993</v>
       </c>
       <c r="T7">
-        <v>0.001325359067123192</v>
+        <v>0.001463013232837993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N8">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O8">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P8">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q8">
-        <v>442.2180647835544</v>
+        <v>504.1207976714739</v>
       </c>
       <c r="R8">
-        <v>442.2180647835544</v>
+        <v>4537.087179043266</v>
       </c>
       <c r="S8">
-        <v>0.0004834613931110561</v>
+        <v>0.000508380031387307</v>
       </c>
       <c r="T8">
-        <v>0.0004834613931110561</v>
+        <v>0.0005083800313873071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N9">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O9">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P9">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q9">
-        <v>79844.95592860004</v>
+        <v>85571.17768204259</v>
       </c>
       <c r="R9">
-        <v>79844.95592860004</v>
+        <v>770140.5991383833</v>
       </c>
       <c r="S9">
-        <v>0.08729167055856424</v>
+        <v>0.0862941544899235</v>
       </c>
       <c r="T9">
-        <v>0.08729167055856424</v>
+        <v>0.08629415448992352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N10">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O10">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P10">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q10">
-        <v>138811.2177505716</v>
+        <v>147194.6658355291</v>
       </c>
       <c r="R10">
-        <v>138811.2177505716</v>
+        <v>1324751.992519762</v>
       </c>
       <c r="S10">
-        <v>0.1517574021902084</v>
+        <v>0.1484382893607105</v>
       </c>
       <c r="T10">
-        <v>0.1517574021902084</v>
+        <v>0.1484382893607105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N11">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O11">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P11">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q11">
-        <v>108.5768822072776</v>
+        <v>208.1986681758317</v>
       </c>
       <c r="R11">
-        <v>108.5768822072776</v>
+        <v>1873.788013582485</v>
       </c>
       <c r="S11">
-        <v>0.000118703270878991</v>
+        <v>0.0002099577044845538</v>
       </c>
       <c r="T11">
-        <v>0.000118703270878991</v>
+        <v>0.0002099577044845538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H12">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N12">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O12">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P12">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q12">
-        <v>1613.656438558257</v>
+        <v>1966.531127728105</v>
       </c>
       <c r="R12">
-        <v>1613.656438558257</v>
+        <v>17698.78014955294</v>
       </c>
       <c r="S12">
-        <v>0.001764153597320462</v>
+        <v>0.001983146025826225</v>
       </c>
       <c r="T12">
-        <v>0.001764153597320462</v>
+        <v>0.001983146025826226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H13">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N13">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O13">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P13">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q13">
-        <v>588.6258366808956</v>
+        <v>683.3466259899764</v>
       </c>
       <c r="R13">
-        <v>588.6258366808956</v>
+        <v>6150.119633909787</v>
       </c>
       <c r="S13">
-        <v>0.0006435238396744256</v>
+        <v>0.0006891201092552196</v>
       </c>
       <c r="T13">
-        <v>0.0006435238396744256</v>
+        <v>0.0006891201092552196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H14">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N14">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O14">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P14">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q14">
-        <v>106279.7016472523</v>
+        <v>115993.5789618414</v>
       </c>
       <c r="R14">
-        <v>106279.7016472523</v>
+        <v>1043942.210656572</v>
       </c>
       <c r="S14">
-        <v>0.1161918444986122</v>
+        <v>0.1169735896351094</v>
       </c>
       <c r="T14">
-        <v>0.1161918444986122</v>
+        <v>0.1169735896351094</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H15">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N15">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O15">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P15">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q15">
-        <v>184768.2754188626</v>
+        <v>199525.5477001371</v>
       </c>
       <c r="R15">
-        <v>184768.2754188626</v>
+        <v>1795729.929301234</v>
       </c>
       <c r="S15">
-        <v>0.2020006303461455</v>
+        <v>0.2012113062402724</v>
       </c>
       <c r="T15">
-        <v>0.2020006303461455</v>
+        <v>0.2012113062402724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H16">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N16">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O16">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P16">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q16">
-        <v>144.5240781032847</v>
+        <v>282.217790043007</v>
       </c>
       <c r="R16">
-        <v>144.5240781032847</v>
+        <v>2539.960110387063</v>
       </c>
       <c r="S16">
-        <v>0.0001580030706617654</v>
+        <v>0.0002846022017397893</v>
       </c>
       <c r="T16">
-        <v>0.0001580030706617654</v>
+        <v>0.0002846022017397893</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H17">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N17">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O17">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P17">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q17">
-        <v>1067.813747314937</v>
+        <v>1349.656608342001</v>
       </c>
       <c r="R17">
-        <v>1067.813747314937</v>
+        <v>12146.90947507802</v>
       </c>
       <c r="S17">
-        <v>0.001167403059648176</v>
+        <v>0.001361059635072102</v>
       </c>
       <c r="T17">
-        <v>0.001167403059648176</v>
+        <v>0.001361059635072102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H18">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N18">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O18">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P18">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q18">
-        <v>389.5146112974316</v>
+        <v>468.9899267554833</v>
       </c>
       <c r="R18">
-        <v>389.5146112974316</v>
+        <v>4220.90934079935</v>
       </c>
       <c r="S18">
-        <v>0.000425842568659287</v>
+        <v>0.0004729523455202906</v>
       </c>
       <c r="T18">
-        <v>0.000425842568659287</v>
+        <v>0.0004729523455202906</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H19">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N19">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O19">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P19">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q19">
-        <v>70329.0513195376</v>
+        <v>79607.94424441675</v>
       </c>
       <c r="R19">
-        <v>70329.0513195376</v>
+        <v>716471.4981997508</v>
       </c>
       <c r="S19">
-        <v>0.07688826810764669</v>
+        <v>0.08028053867364908</v>
       </c>
       <c r="T19">
-        <v>0.07688826810764669</v>
+        <v>0.08028053867364907</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H20">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N20">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O20">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P20">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q20">
-        <v>122267.7267883693</v>
+        <v>136937.0513334584</v>
       </c>
       <c r="R20">
-        <v>122267.7267883693</v>
+        <v>1232433.462001126</v>
       </c>
       <c r="S20">
-        <v>0.1336709877615685</v>
+        <v>0.1380940099605975</v>
       </c>
       <c r="T20">
-        <v>0.1336709877615685</v>
+        <v>0.1380940099605975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H21">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N21">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O21">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P21">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q21">
-        <v>95.6367128275388</v>
+        <v>193.6898429689557</v>
       </c>
       <c r="R21">
-        <v>95.6367128275388</v>
+        <v>1743.208586720601</v>
       </c>
       <c r="S21">
-        <v>0.0001045562406836425</v>
+        <v>0.0001953262965995108</v>
       </c>
       <c r="T21">
-        <v>0.0001045562406836425</v>
+        <v>0.0001953262965995108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H22">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N22">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O22">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P22">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q22">
-        <v>124.20708681803</v>
+        <v>148.2585602555233</v>
       </c>
       <c r="R22">
-        <v>124.20708681803</v>
+        <v>1334.32704229971</v>
       </c>
       <c r="S22">
-        <v>0.0001357912215926821</v>
+        <v>0.0001495111724496997</v>
       </c>
       <c r="T22">
-        <v>0.0001357912215926821</v>
+        <v>0.0001495111724496997</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H23">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N23">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O23">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P23">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q23">
-        <v>45.30797179186543</v>
+        <v>51.51812015393178</v>
       </c>
       <c r="R23">
-        <v>45.30797179186543</v>
+        <v>463.663081385386</v>
       </c>
       <c r="S23">
-        <v>4.953360548998157E-05</v>
+        <v>5.195338827885243E-05</v>
       </c>
       <c r="T23">
-        <v>4.953360548998157E-05</v>
+        <v>5.195338827885244E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H24">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N24">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O24">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P24">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q24">
-        <v>8180.608842170222</v>
+        <v>8744.860822841572</v>
       </c>
       <c r="R24">
-        <v>8180.608842170222</v>
+        <v>78703.74740557415</v>
       </c>
       <c r="S24">
-        <v>0.008943570745505468</v>
+        <v>0.008818744713823566</v>
       </c>
       <c r="T24">
-        <v>0.008943570745505468</v>
+        <v>0.008818744713823566</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H25">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N25">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O25">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P25">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q25">
-        <v>14222.06653026645</v>
+        <v>15042.41149256145</v>
       </c>
       <c r="R25">
-        <v>14222.06653026645</v>
+        <v>135381.703433053</v>
       </c>
       <c r="S25">
-        <v>0.01554848307928384</v>
+        <v>0.01516950235350686</v>
       </c>
       <c r="T25">
-        <v>0.01554848307928384</v>
+        <v>0.01516950235350686</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H26">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N26">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O26">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P26">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q26">
-        <v>11.1243721323412</v>
+        <v>21.27665442987933</v>
       </c>
       <c r="R26">
-        <v>11.1243721323412</v>
+        <v>191.489889868914</v>
       </c>
       <c r="S26">
-        <v>1.216188319041167E-05</v>
+        <v>2.145641738416818E-05</v>
       </c>
       <c r="T26">
-        <v>1.216188319041167E-05</v>
+        <v>2.145641738416818E-05</v>
       </c>
     </row>
   </sheetData>
